--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8192,12 +8192,87 @@
         <v>10.2683</v>
       </c>
       <c r="E310" t="n">
-        <v>10.1416</v>
+        <v>10.027</v>
       </c>
       <c r="F310" t="n">
-        <v>10.1638</v>
+        <v>10.057</v>
       </c>
       <c r="G310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDMAD</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>10.0025</v>
+      </c>
+      <c r="D311" t="n">
+        <v>10.2563</v>
+      </c>
+      <c r="E311" t="n">
+        <v>9.968400000000001</v>
+      </c>
+      <c r="F311" t="n">
+        <v>10.1758</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDMAD</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>10.1628</v>
+      </c>
+      <c r="D312" t="n">
+        <v>10.225</v>
+      </c>
+      <c r="E312" t="n">
+        <v>9.850199999999999</v>
+      </c>
+      <c r="F312" t="n">
+        <v>9.8803</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDMAD</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>9.8973</v>
+      </c>
+      <c r="D313" t="n">
+        <v>9.912800000000001</v>
+      </c>
+      <c r="E313" t="n">
+        <v>9.7285</v>
+      </c>
+      <c r="F313" t="n">
+        <v>9.778499999999999</v>
+      </c>
+      <c r="G313" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
@@ -8267,10 +8267,10 @@
         <v>9.912800000000001</v>
       </c>
       <c r="E313" t="n">
-        <v>9.7285</v>
+        <v>9.6638</v>
       </c>
       <c r="F313" t="n">
-        <v>9.778499999999999</v>
+        <v>9.692600000000001</v>
       </c>
       <c r="G313" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>35886.33333333334</v>
+        <v>35886.375</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -8267,12 +8267,37 @@
         <v>9.912800000000001</v>
       </c>
       <c r="E313" t="n">
-        <v>9.6638</v>
+        <v>9.642099999999999</v>
       </c>
       <c r="F313" t="n">
-        <v>9.692600000000001</v>
+        <v>9.8485</v>
       </c>
       <c r="G313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDMAD</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D314" t="n">
+        <v>9.8843</v>
+      </c>
+      <c r="E314" t="n">
+        <v>9.7508</v>
+      </c>
+      <c r="F314" t="n">
+        <v>9.7743</v>
+      </c>
+      <c r="G314" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
@@ -678,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -8289,13 +8289,13 @@
         <v>9.84</v>
       </c>
       <c r="D314" t="n">
-        <v>9.8843</v>
+        <v>10.007</v>
       </c>
       <c r="E314" t="n">
-        <v>9.7508</v>
+        <v>9.732699999999999</v>
       </c>
       <c r="F314" t="n">
-        <v>9.7743</v>
+        <v>9.9902</v>
       </c>
       <c r="G314" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G314"/>
+  <dimension ref="A1:G317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8289,15 +8289,90 @@
         <v>9.84</v>
       </c>
       <c r="D314" t="n">
-        <v>10.007</v>
+        <v>10.1674</v>
       </c>
       <c r="E314" t="n">
         <v>9.732699999999999</v>
       </c>
       <c r="F314" t="n">
-        <v>9.9902</v>
+        <v>10.1604</v>
       </c>
       <c r="G314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDMAD</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>10.1598</v>
+      </c>
+      <c r="D315" t="n">
+        <v>10.3323</v>
+      </c>
+      <c r="E315" t="n">
+        <v>10.112</v>
+      </c>
+      <c r="F315" t="n">
+        <v>10.2833</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDMAD</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>10.2833</v>
+      </c>
+      <c r="D316" t="n">
+        <v>10.3464</v>
+      </c>
+      <c r="E316" t="n">
+        <v>10.1978</v>
+      </c>
+      <c r="F316" t="n">
+        <v>10.2975</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDMAD</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>10.2958</v>
+      </c>
+      <c r="D317" t="n">
+        <v>10.3303</v>
+      </c>
+      <c r="E317" t="n">
+        <v>10.1652</v>
+      </c>
+      <c r="F317" t="n">
+        <v>10.2043</v>
+      </c>
+      <c r="G317" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
@@ -8367,10 +8367,10 @@
         <v>10.3303</v>
       </c>
       <c r="E317" t="n">
-        <v>10.1652</v>
+        <v>10.1213</v>
       </c>
       <c r="F317" t="n">
-        <v>10.2043</v>
+        <v>10.1518</v>
       </c>
       <c r="G317" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Morocco_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G317"/>
+  <dimension ref="A1:G318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7689,12 +7689,35 @@
         <v>10.3303</v>
       </c>
       <c r="E317">
-        <v>10.0873</v>
+        <v>10.0228</v>
       </c>
       <c r="F317">
-        <v>10.1159</v>
+        <v>10.0897</v>
       </c>
       <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318">
+        <v>10.0674</v>
+      </c>
+      <c r="D318">
+        <v>10.1187</v>
+      </c>
+      <c r="E318">
+        <v>10.0674</v>
+      </c>
+      <c r="F318">
+        <v>10.0724</v>
+      </c>
+      <c r="G318">
         <v>0</v>
       </c>
     </row>
